--- a/medicine/Enfance/Michel_Amelin_(auteur_pour_enfants)/Michel_Amelin_(auteur_pour_enfants).xlsx
+++ b/medicine/Enfance/Michel_Amelin_(auteur_pour_enfants)/Michel_Amelin_(auteur_pour_enfants).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Amelin, né le 20 novembre 1955 à Philippeville, en Algérie, est un auteur de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Michel Amelin enseigne dans les classes maternelles depuis 1975.
 En littérature, il publie plus d'une soixantaine d'histoires pour la jeunesse, abordant divers genres populaires pour provoquer des émotions fortes : romans policiers, romans d'amour, d'horreur ou d'humour.
@@ -545,20 +559,93 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0 à 6 ans (maternelle et CP)
-Mini-Bêtes, maximages (ill divers), 4 albums, Hemma, juillet 95
+          <t>0 à 6 ans (maternelle et CP)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mini-Bêtes, maximages (ill divers), 4 albums, Hemma, juillet 95
 Au dodo, les doudous (Série 4 albums : Doudou Lapinou, Doudou Toutou, Doudou Minou, Doudou Nounours), ill. Susan Robertson Hemma, décembre 1996
-Le Petit Empereur de Chine, (ill. Ulises Wensell) Bayard Poche, février 1997, 7e édition, avril 2004 (traduit en plusieurs langues, dont l'anglais ; adaptation en dessin animé pour la télévision (Canal J, Noël 1995, puis FR3 + K7 Vidéo + CD Rom, en projet)
-4 à 6 ans (Moyenne Grande Section, CP)
-Le Plus Petit des Pygmés (ill. Claude Lapointe) Belles Histoires, mai 1995
+Le Petit Empereur de Chine, (ill. Ulises Wensell) Bayard Poche, février 1997, 7e édition, avril 2004 (traduit en plusieurs langues, dont l'anglais ; adaptation en dessin animé pour la télévision (Canal J, Noël 1995, puis FR3 + K7 Vidéo + CD Rom, en projet)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4 à 6 ans (Moyenne Grande Section, CP)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Plus Petit des Pygmés (ill. Claude Lapointe) Belles Histoires, mai 1995
 60 histoires d'animaux (sur 365) (ill. divers) Hemma, septembre 1995
 Mardi-gras chez les souris (avec Françoise Amelin) (illus.Bernadette Pons), Grasset Jeunesse, 1995
 Mon papa le roi (ill. Colette Camil) Bayard/ Centurion, 1995 (traduit en anglais en 1996)
 Foufou - Le kangourou volant (ill. François Daniel) Épigones, septembre 1996
 Foufou - La Colère des corbeaux (ill. François Daniel) Épigones/Myriades 1998
-Les Vacances de mille-pattes (ill. Christian Quenehen) Fleurus/Je Lis Déjà
-7 à 9 ans (CE, CM 1)
-Le Fauteuil magique (ill. Mérel), juillet 1995 (J'aime Lire) (traduit en catalan, et en anglais au Canada)
+Les Vacances de mille-pattes (ill. Christian Quenehen) Fleurus/Je Lis Déjà</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7 à 9 ans (CE, CM 1)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Fauteuil magique (ill. Mérel), juillet 1995 (J'aime Lire) (traduit en catalan, et en anglais au Canada)
 Le Fils du pirate (ill. Catherine Hélye) Nathan, coll. « Demi Lune », avril 1996 (traduit italien en 1999)
 Le Piège de la rose noire (ill. J.F. Martin) J'aime Lire, septembre 1996, (trad en  anglais, polonais, canadien, espagnol) ; réédition J’aime lire livre/Bayard Poche, 2003
 Un crime est-il facile ? (ill. Gilles Frély), roman policier enfant, Epigones, septembre 1996
@@ -583,10 +670,47 @@
 Qui a saucissonné l'éléphant blanc ? Nouv énigmes Zoo –Sherlock Yack (Milan), janvier 2007
 Qui a noué le python ? Nouv énigmes du Zoo (Milan), janvier 2007
 Qui a zigouillé le koala ? Nouv énigmes du Zoo (Milan), septembre 2007
-Qui a liquidé le raton laveur ? Nouv énigmes du Zoo (Milan), septembre 2007
-9 ans à 13 ans (CM 2, 6e, 5e)
-Romans policiers, thrillers : (jusqu'en 4e)
-L'Affaire du zoo (ill. Arthur Robins), Je Bouquine, août 1990
+Qui a liquidé le raton laveur ? Nouv énigmes du Zoo (Milan), septembre 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9 ans à 13 ans (CM 2, 6e, 5e)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Romans policiers, thrillers : (jusqu'en 4e)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Affaire du zoo (ill. Arthur Robins), Je Bouquine, août 1990
 Panique au cirque (ill. Frédéric Rébéna), Je Bouquine, avril 1994 (Internet/Collins pour étudiants anglais)
 Disparues (ill. Tony Ross), Je Bouquine, février 1995
 Train d'enfer (ill. Christophe Durual), mai 95 Nathan/Pleine Lune (traduit en grec et en espagnol en 1998, en polonais en 1999), Pocket Jeunesse et France-Loisirs en 1999 - Prix des 3000 lecteurs, Sucy-en-Brie
@@ -614,15 +738,129 @@
 À la poursuite de Nefertiti (ill Erwan Fagès)Milan/Toutalire, septembre 2003
 Le Dernier Galop (Bayard D.Lire), mars 2003
 Traquées, Magnard/les Policiers, 2005
-Le Retour de la bête, réédition LITO, 2006
-Romans policiers
-La Voix d'outre-tombe (ill.Franck Roudeau) Je Bouquine, juillet 1998
-Cache-cache avec la mort (Milan) mars 2000
-Romans policiers humoristiques (CM, 6e)
-Détective zéro zéro nul ill Jérôme Brasseur (Rageot/ Cascade), septembre 1998  - Prix de Beaugency  99 du Livre le plus drôle de l'année)
-Mission pas possible (Rageot-Cascade), mars 2001
-Comédie  ou aventure sentimentales
-Le Secret de Jessica (roman ado) (ill. Leloup, Alain Korkos), RageotCascade, mars 1996 ; réédition chez LITO, 2003 - Prix de la Ville de Saint-Jean d'Angely 1998
+Le Retour de la bête, réédition LITO, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9 ans à 13 ans (CM 2, 6e, 5e)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Voix d'outre-tombe (ill.Franck Roudeau) Je Bouquine, juillet 1998
+Cache-cache avec la mort (Milan) mars 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9 ans à 13 ans (CM 2, 6e, 5e)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Romans policiers humoristiques (CM, 6e)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Détective zéro zéro nul ill Jérôme Brasseur (Rageot/ Cascade), septembre 1998  - Prix de Beaugency  99 du Livre le plus drôle de l'année)
+Mission pas possible (Rageot-Cascade), mars 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9 ans à 13 ans (CM 2, 6e, 5e)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Comédie  ou aventure sentimentales</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Secret de Jessica (roman ado) (ill. Leloup, Alain Korkos), RageotCascade, mars 1996 ; réédition chez LITO, 2003 - Prix de la Ville de Saint-Jean d'Angely 1998
 Dur, dur, d'être top model ! ill Dominique Corbasson roman humour ado) Nathan/Pleine Lune, avril 1997 (traduit en italien 1998, espagnol, portugais)
 Musiques à cœur (Cœur Grenadine/Bayard Poche), mai 1999
 À vos marques !! (Castor Poche Flammarion), octobre 1999
@@ -651,21 +889,131 @@
 Moi, la baby-sitter qui craque ! (Lito), janvier 2008
 Moi, diamond girl ! (Lito), janvier 2008
 Moi, top model ?!? (Lito), janvier 2008
-Moi, future star en danger ! (Lito), janvier 2008
-Faux guides
-Comment être superbelle ? (Pocket Jeunesse, coll. « Rigolo »), janvier 2001
+Moi, future star en danger ! (Lito), janvier 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9 ans à 13 ans (CM 2, 6e, 5e)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Faux guides</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Comment être superbelle ? (Pocket Jeunesse, coll. « Rigolo »), janvier 2001
 Le Book du foot de Hugo Amelin (collaboration) (Pocket Jeunesse), avril 2002
 Le Petit Guide de malpolitesse (Pocket Jeunesse), mars 2003
 Le Guide rigolo des animaux de compagnie (Pocket Jeunesse), décembre 2004
 100 % numérologie rose (Lito), janvier 2005
-Debout, les momies ! (guide rigolo de l’Égypte ancienne)  (Pocket Jeunesse), mai 2005
-Récits d'horreur
-La Momie décapitée (ill.Nicollet) Je Bouquine, août 1997 (tous les Je Bouquine sont en braille) ; réédition (Bayard/Mondes Imaginaires), automne 2001
+Debout, les momies ! (guide rigolo de l’Égypte ancienne)  (Pocket Jeunesse), mai 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9 ans à 13 ans (CM 2, 6e, 5e)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Récits d'horreur</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La Momie décapitée (ill.Nicollet) Je Bouquine, août 1997 (tous les Je Bouquine sont en braille) ; réédition (Bayard/Mondes Imaginaires), automne 2001
 Terreur au collège (ill Nicollet) supplément OKAPI, septembre 1998
 Le Doigt coupé (Bayard Presse/JE Bouquine), mars 2001
-Le Messager de la mort (ill. Mickaël Brack) Les fantastiques/Magnard, octobre 2003
-3e et adultes
-Les Jardins du casino, Librairie des Champs-Élysées, coll. « Le Masque » no 1952, avril 1989 - Prix du Festival de Cognac 1989
+Le Messager de la mort (ill. Mickaël Brack) Les fantastiques/Magnard, octobre 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Amelin_(auteur_pour_enfants)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3e et adultes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Les Jardins du casino, Librairie des Champs-Élysées, coll. « Le Masque » no 1952, avril 1989 - Prix du Festival de Cognac 1989
 Les Meilleures Enquêtes de Liza Baxter Vente en VPC (réédition en un volume de 7 romans policiers pour adultes et 4 nouvelles parus dans le magazine Bonne Soirée), mai 1999
 D'un Z qui veut dire Zozzo (comédie) Art &amp; Comédie 2003
 Une nouvelle policière dans le magazine Côté Femme tous les trimestres pendant 2 ans
